--- a/bank statement generator/bank_statements/statement_97.xlsx
+++ b/bank statement generator/bank_statements/statement_97.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 11.10.2023</t>
+          <t>KONTOSTAND AM 04.09.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,66 +759,66 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>12.10.</t>
+          <t>07.09.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>13.10.</t>
+          <t>08.09.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 34556042</t>
+          <t>PAYPAL LQLZYN</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>37,51-</t>
+          <t>17,23-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>16.10.</t>
+          <t>08.09.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>17.10.</t>
+          <t>09.09.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./16.10 ALDI SUED RO</t>
+          <t>PAYPAL PQYPMH</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>15,06-</t>
+          <t>49,13-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>19.10.</t>
+          <t>12.09.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>20.10.</t>
+          <t>13.09.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 89371372</t>
+          <t>RECHNUNG VODAFONE GMBH 37642085</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>84,58-</t>
+          <t>37,69-</t>
         </is>
       </c>
     </row>
@@ -845,12 +845,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 23.10.2023</t>
+          <t>KONTOSTAND AM 15.09.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>137,15-</t>
+          <t>104,05-</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 02.11.2023</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 24.09.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
